--- a/tmac_test.xlsx
+++ b/tmac_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkrat\Documents\projects\RS_vs_PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AE0EC6-0F71-4889-8DEC-C2617B45D2B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE6F8E-1E94-492D-A511-F4727DA3A556}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F79F354-1F22-4F2C-952B-A558EEE5F484}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0F79F354-1F22-4F2C-952B-A558EEE5F484}"/>
   </bookViews>
   <sheets>
     <sheet name="Before" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="73">
   <si>
     <t>Tm</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>DIFF_QUALIFIER</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
   </si>
 </sst>
 </file>
@@ -600,29 +609,29 @@
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -717,7 +726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -812,7 +821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -892,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -987,7 +996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1257,7 +1266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1432,7 +1441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>13</v>
       </c>
@@ -1607,7 +1616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1797,7 +1806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>13</v>
       </c>
@@ -1877,7 +1886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1972,7 +1981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>13</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2417,7 +2426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2512,7 +2521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2687,7 +2696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2957,7 +2966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
         <v>13</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3132,7 +3141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F30" t="s">
         <v>13</v>
       </c>
@@ -3307,7 +3316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3402,7 +3411,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
         <v>13</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -3672,7 +3681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -3767,7 +3776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
         <v>13</v>
       </c>
@@ -3847,7 +3856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -3942,7 +3951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F38" t="s">
         <v>13</v>
       </c>
@@ -4022,7 +4031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4117,7 +4126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -4212,7 +4221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
         <v>13</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -4384,7 +4393,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -4479,7 +4488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
         <v>13</v>
       </c>
@@ -4559,7 +4568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -4648,7 +4657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -4737,7 +4746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F47" t="s">
         <v>13</v>
       </c>
@@ -4817,7 +4826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -4906,7 +4915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F49" t="s">
         <v>13</v>
       </c>
@@ -4986,7 +4995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -5075,7 +5084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -5164,7 +5173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F52" t="s">
         <v>13</v>
       </c>
@@ -5244,7 +5253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -5333,7 +5342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F54" t="s">
         <v>13</v>
       </c>
@@ -5413,7 +5422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -5502,7 +5511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -5591,7 +5600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
         <v>13</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -5760,7 +5769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F59" t="s">
         <v>13</v>
       </c>
@@ -5840,7 +5849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -5929,7 +5938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -6018,7 +6027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F62" t="s">
         <v>13</v>
       </c>
@@ -6098,7 +6107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -6184,7 +6193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -6270,7 +6279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="6:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:31" x14ac:dyDescent="0.35">
       <c r="F65" t="s">
         <v>13</v>
       </c>
@@ -6359,33 +6368,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142EB3C8-95E7-4BBB-AA92-738B020D7336}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AF66" sqref="AF66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6480,10 +6490,10 @@
         <v>65</v>
       </c>
       <c r="AF1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6577,12 +6587,11 @@
       <c r="AE2" t="s">
         <v>66</v>
       </c>
-      <c r="AF2" t="str">
-        <f>IF(AND(AF1="X",  AF3="X"), "B",IF(AF1="X", "F",IF(CF1="X","L","N")))</f>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -6665,7 +6674,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6759,12 +6768,11 @@
       <c r="AE4" t="s">
         <v>66</v>
       </c>
-      <c r="AF4" t="str">
-        <f>IF(AND(AF3="X",  AF5="X"), "B",IF(AF3="X", "F",IF(CF3="X","L","N")))</f>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
         <v>13</v>
       </c>
@@ -6847,7 +6855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6941,12 +6949,11 @@
       <c r="AE6" t="s">
         <v>66</v>
       </c>
-      <c r="AF6">
-        <f ca="1">IF(AND(AF5="X",  AF7="X"), "B",IF(AF5="X", "F",IF(CF5="X","L","N")))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -7040,12 +7047,11 @@
       <c r="AE7" t="s">
         <v>67</v>
       </c>
-      <c r="AF7" t="str">
-        <f ca="1">IF(AND(AF6="X",  AF8="X"), "B",IF(AF6="X", "F",IF(CF6="X","L","N")))</f>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>13</v>
       </c>
@@ -7128,7 +7134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7222,8 +7228,11 @@
       <c r="AE9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7317,8 +7326,11 @@
       <c r="AE10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>13</v>
       </c>
@@ -7401,7 +7413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7495,8 +7507,11 @@
       <c r="AE12" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7590,8 +7605,11 @@
       <c r="AE13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>13</v>
       </c>
@@ -7674,7 +7692,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -7768,8 +7786,11 @@
       <c r="AE15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -7863,8 +7884,11 @@
       <c r="AE16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>13</v>
       </c>
@@ -7947,7 +7971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -8041,8 +8065,11 @@
       <c r="AE18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>13</v>
       </c>
@@ -8125,7 +8152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -8219,8 +8246,11 @@
       <c r="AE20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -8314,8 +8344,11 @@
       <c r="AE21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
         <v>13</v>
       </c>
@@ -8398,7 +8431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -8492,8 +8525,11 @@
       <c r="AE23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F24" t="s">
         <v>13</v>
       </c>
@@ -8576,7 +8612,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -8670,8 +8706,11 @@
       <c r="AE25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -8765,8 +8804,11 @@
       <c r="AE26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
         <v>13</v>
       </c>
@@ -8849,7 +8891,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -8943,8 +8985,11 @@
       <c r="AE28" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -9038,8 +9083,11 @@
       <c r="AE29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F30" t="s">
         <v>13</v>
       </c>
@@ -9122,7 +9170,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -9216,8 +9264,11 @@
       <c r="AE31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
         <v>13</v>
       </c>
@@ -9300,7 +9351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -9394,8 +9445,11 @@
       <c r="AE33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -9490,7 +9544,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -9585,7 +9639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
         <v>13</v>
       </c>
@@ -9668,7 +9722,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -9762,8 +9816,11 @@
       <c r="AE37" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F38" t="s">
         <v>13</v>
       </c>
@@ -9846,7 +9903,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -9940,8 +9997,11 @@
       <c r="AE39" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -10035,8 +10095,11 @@
       <c r="AE40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
         <v>13</v>
       </c>
@@ -10119,7 +10182,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -10210,8 +10273,11 @@
       <c r="AE42" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -10305,8 +10371,11 @@
       <c r="AE43" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
         <v>13</v>
       </c>
@@ -10389,7 +10458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -10477,8 +10546,11 @@
       <c r="AE45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -10566,8 +10638,11 @@
       <c r="AE46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F47" t="s">
         <v>13</v>
       </c>
@@ -10650,7 +10725,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -10738,8 +10813,11 @@
       <c r="AE48" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F49" t="s">
         <v>13</v>
       </c>
@@ -10822,7 +10900,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -10910,8 +10988,11 @@
       <c r="AE50" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -10999,8 +11080,11 @@
       <c r="AE51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F52" t="s">
         <v>13</v>
       </c>
@@ -11083,7 +11167,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -11171,8 +11255,11 @@
       <c r="AE53" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F54" t="s">
         <v>13</v>
       </c>
@@ -11255,7 +11342,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -11343,8 +11430,11 @@
       <c r="AE55" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -11432,8 +11522,11 @@
       <c r="AE56" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
         <v>13</v>
       </c>
@@ -11516,7 +11609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -11604,8 +11697,11 @@
       <c r="AE58" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F59" t="s">
         <v>13</v>
       </c>
@@ -11688,7 +11784,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -11776,8 +11872,11 @@
       <c r="AE60" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -11865,8 +11964,11 @@
       <c r="AE61" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="F62" t="s">
         <v>13</v>
       </c>
@@ -11949,7 +12051,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -12034,8 +12136,11 @@
       <c r="AE63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF63" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -12120,8 +12225,11 @@
       <c r="AE64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="6:32" x14ac:dyDescent="0.25">
+      <c r="AF64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="6:32" x14ac:dyDescent="0.35">
       <c r="F65" t="s">
         <v>13</v>
       </c>

--- a/tmac_test.xlsx
+++ b/tmac_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkrat\Documents\projects\RS_vs_PS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\CompSci\NBA RS vs PS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE6F8E-1E94-492D-A511-F4727DA3A556}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFB4208-A7B4-48D5-BEE8-74A29012F2EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0F79F354-1F22-4F2C-952B-A558EEE5F484}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0F79F354-1F22-4F2C-952B-A558EEE5F484}"/>
   </bookViews>
   <sheets>
     <sheet name="Before" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="73">
   <si>
     <t>Tm</t>
   </si>
@@ -609,29 +609,29 @@
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -726,7 +726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -821,7 +821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -901,7 +901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -996,7 +996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>13</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>13</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>13</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>13</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>13</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>13</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>13</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>13</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>13</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>13</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>13</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>13</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>13</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>13</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>13</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>13</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>13</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>13</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>13</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>13</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>13</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="6:31" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:31" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>13</v>
       </c>
@@ -6368,34 +6368,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142EB3C8-95E7-4BBB-AA92-738B020D7336}">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AF66" sqref="AF66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="5" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="29" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="29" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -6493,7 +6494,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6587,11 +6588,8 @@
       <c r="AE2" t="s">
         <v>66</v>
       </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>13</v>
       </c>
@@ -6670,11 +6668,8 @@
       <c r="AE3" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -6768,11 +6763,8 @@
       <c r="AE4" t="s">
         <v>66</v>
       </c>
-      <c r="AF4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>13</v>
       </c>
@@ -6851,11 +6843,8 @@
       <c r="AE5" t="s">
         <v>13</v>
       </c>
-      <c r="AF5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6953,7 +6942,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -7051,7 +7040,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>13</v>
       </c>
@@ -7134,7 +7123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7232,7 +7221,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7330,7 +7319,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>13</v>
       </c>
@@ -7413,7 +7402,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7511,7 +7500,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7609,7 +7598,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>13</v>
       </c>
@@ -7692,7 +7681,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -7790,7 +7779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -7888,7 +7877,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>13</v>
       </c>
@@ -7971,7 +7960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -8065,11 +8054,8 @@
       <c r="AE18" t="s">
         <v>66</v>
       </c>
-      <c r="AF18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>13</v>
       </c>
@@ -8148,11 +8134,8 @@
       <c r="AE19" t="s">
         <v>13</v>
       </c>
-      <c r="AF19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -8250,7 +8233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -8348,7 +8331,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>13</v>
       </c>
@@ -8431,7 +8414,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -8525,11 +8508,8 @@
       <c r="AE23" t="s">
         <v>66</v>
       </c>
-      <c r="AF23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>13</v>
       </c>
@@ -8608,11 +8588,8 @@
       <c r="AE24" t="s">
         <v>13</v>
       </c>
-      <c r="AF24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -8710,7 +8687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -8808,7 +8785,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>13</v>
       </c>
@@ -8891,7 +8868,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -8989,7 +8966,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -9087,7 +9064,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>13</v>
       </c>
@@ -9170,7 +9147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -9264,11 +9241,8 @@
       <c r="AE31" t="s">
         <v>66</v>
       </c>
-      <c r="AF31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>13</v>
       </c>
@@ -9347,11 +9321,8 @@
       <c r="AE32" t="s">
         <v>13</v>
       </c>
-      <c r="AF32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -9445,11 +9416,8 @@
       <c r="AE33" t="s">
         <v>66</v>
       </c>
-      <c r="AF33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -9544,7 +9512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -9639,7 +9607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>13</v>
       </c>
@@ -9718,11 +9686,8 @@
       <c r="AE36" t="s">
         <v>13</v>
       </c>
-      <c r="AF36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -9816,11 +9781,8 @@
       <c r="AE37" t="s">
         <v>66</v>
       </c>
-      <c r="AF37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>13</v>
       </c>
@@ -9899,11 +9861,8 @@
       <c r="AE38" t="s">
         <v>13</v>
       </c>
-      <c r="AF38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -10001,7 +9960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -10099,7 +10058,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>13</v>
       </c>
@@ -10182,7 +10141,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -10277,7 +10236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -10375,7 +10334,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>13</v>
       </c>
@@ -10458,7 +10417,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -10550,7 +10509,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>37</v>
       </c>
@@ -10642,7 +10601,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>13</v>
       </c>
@@ -10725,7 +10684,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -10813,11 +10772,8 @@
       <c r="AE48" t="s">
         <v>66</v>
       </c>
-      <c r="AF48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>13</v>
       </c>
@@ -10896,11 +10852,8 @@
       <c r="AE49" t="s">
         <v>13</v>
       </c>
-      <c r="AF49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -10992,7 +10945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -11084,7 +11037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>13</v>
       </c>
@@ -11167,7 +11120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -11255,11 +11208,8 @@
       <c r="AE53" t="s">
         <v>66</v>
       </c>
-      <c r="AF53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>13</v>
       </c>
@@ -11338,11 +11288,8 @@
       <c r="AE54" t="s">
         <v>13</v>
       </c>
-      <c r="AF54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -11434,7 +11381,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -11526,7 +11473,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>13</v>
       </c>
@@ -11609,7 +11556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
@@ -11697,11 +11644,8 @@
       <c r="AE58" t="s">
         <v>67</v>
       </c>
-      <c r="AF58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>13</v>
       </c>
@@ -11780,11 +11724,8 @@
       <c r="AE59" t="s">
         <v>13</v>
       </c>
-      <c r="AF59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -11876,7 +11817,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>37</v>
       </c>
@@ -11968,7 +11909,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>13</v>
       </c>
@@ -12051,7 +11992,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>36</v>
       </c>
@@ -12140,7 +12081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -12229,7 +12170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="6:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:32" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>13</v>
       </c>
